--- a/Estrategia_blog.xlsx
+++ b/Estrategia_blog.xlsx
@@ -24,24 +24,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Título</t>
-  </si>
-  <si>
-    <t>Contenido</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Fecha</t>
   </si>
   <si>
-    <t>1. Fórmate sin dejar tu trabajo</t>
-  </si>
-  <si>
-    <t>2. Beneficios de la formación online</t>
-  </si>
-  <si>
-    <t>3. Ayudas al emprendimiento</t>
+    <t>Para personas empleadas que quieren promocionarse sin descuidar su puesto.</t>
+  </si>
+  <si>
+    <t>Permite formarte en el area que tu elijas sin tener que desplazarte. Y si te desplazas puedes conectarte.</t>
+  </si>
+  <si>
+    <t>Cuanto antes empecemos a programar más soltura tendremos en el futuro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fechas y temarios de las distinas convocatorias. </t>
+  </si>
+  <si>
+    <t>Informacion sobre las posibles Ayudas publicas a las que puedes optar si decides emprender.</t>
+  </si>
+  <si>
+    <t>Fechas cuantía de las ayudas y becas y como solicitarlas.</t>
+  </si>
+  <si>
+    <t>Objetivo (CTA)</t>
+  </si>
+  <si>
+    <t>Título / Temática</t>
+  </si>
+  <si>
+    <t>Contenido / Breve descripción</t>
+  </si>
+  <si>
+    <t>Quiero que vean el catalogo de cursos que tenemos, "Descubre nuestros cursos"</t>
+  </si>
+  <si>
+    <t>Mostrar los beneficios de nuestras formaciones, "Descubre nuestros cursos"</t>
+  </si>
+  <si>
+    <t>Hacer comunidad entre personas que quieren emprender, "Te Ayudamos"</t>
+  </si>
+  <si>
+    <t>Quieren descubrir las posibles ayudas y crear comunidad, "Infórmate"</t>
+  </si>
+  <si>
+    <t>Ofrecemos los temarios de las distintas oposiciones, "Atrevete"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CP: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tomás, Helena</t>
+    </r>
+  </si>
+  <si>
+    <t>Beneficios de la formación online</t>
+  </si>
+  <si>
+    <t>Fórmate sin dejar tu trabajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información sobre convocatorias de oposiciones </t>
+  </si>
+  <si>
+    <t>Ayudas al emprendimiento</t>
+  </si>
+  <si>
+    <t>Información sobre solicitudes de becas y ayudas</t>
+  </si>
+  <si>
+    <t>Beneficios de aprender a programar</t>
+  </si>
+  <si>
+    <t>Tomás</t>
+  </si>
+  <si>
+    <t>Helena</t>
+  </si>
+  <si>
+    <t>Tomás, Helena</t>
   </si>
   <si>
     <r>
@@ -55,35 +132,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Informal pero directo</t>
+      <t xml:space="preserve"> Informal pero directo, 2º Persona</t>
     </r>
   </si>
   <si>
-    <t>Para personas empleadas que quieren promocionarse sin descuidar su puesto.</t>
-  </si>
-  <si>
-    <t>Permite formarte en el area que tu elijas sin tener que desplazarte. Y si te desplazas puedes conectarte.</t>
-  </si>
-  <si>
-    <t>Cuanto antes empecemos a programar más soltura tendremos en el futuro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fechas y temarios de las distinas convocatorias. </t>
-  </si>
-  <si>
-    <t>Informacion sobre las posibles Ayudas publicas a las que puedes optar si decides emprender.</t>
-  </si>
-  <si>
-    <t>Fechas cuantía de las ayudas y becas y como solicitarlas.</t>
-  </si>
-  <si>
-    <t>4. Información sobre solicitudes de becas y ayudas</t>
-  </si>
-  <si>
-    <t>5. Beneficios de aprender a programar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Información sobre convocatorias de oposiciones </t>
+    <t>CP</t>
   </si>
 </sst>
 </file>
@@ -127,9 +180,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,81 +470,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.140625" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="69.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="58.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45047</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="2">
+        <v>45078</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C4" s="2">
+        <v>45108</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45139</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C6" s="2">
+        <v>45170</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C7" s="2">
+        <v>45261</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Estrategia_blog.xlsx
+++ b/Estrategia_blog.xlsx
@@ -473,7 +473,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Estrategia_blog.xlsx
+++ b/Estrategia_blog.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>Fecha</t>
   </si>
@@ -106,9 +107,6 @@
     <t>Ayudas al emprendimiento</t>
   </si>
   <si>
-    <t>Información sobre solicitudes de becas y ayudas</t>
-  </si>
-  <si>
     <t>Beneficios de aprender a programar</t>
   </si>
   <si>
@@ -138,12 +136,93 @@
   <si>
     <t>CP</t>
   </si>
+  <si>
+    <t>KEY WORDS</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Key Words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Información sobre solicitudes de becas y ayudas </t>
+  </si>
+  <si>
+    <t>ayuda becas universitarias</t>
+  </si>
+  <si>
+    <t>becas 2022 2023 españa</t>
+  </si>
+  <si>
+    <t>becas para estudios online universitarios</t>
+  </si>
+  <si>
+    <t>solicitar becas universitarias</t>
+  </si>
+  <si>
+    <t>becas universitarias 2022 23 españa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">becas formación profesional </t>
+  </si>
+  <si>
+    <t>Primeros resultados</t>
+  </si>
+  <si>
+    <t>https://www.becaseducacion.gob.es/portada.html</t>
+  </si>
+  <si>
+    <t>Herramienta</t>
+  </si>
+  <si>
+    <t>ahrefs.com</t>
+  </si>
+  <si>
+    <t>Backlinks</t>
+  </si>
+  <si>
+    <t>Linking websites</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Becas del Ministerio de Educación </t>
+  </si>
+  <si>
+    <t>https://www.educaweb.com/</t>
+  </si>
+  <si>
+    <t>becas formación profesional</t>
+  </si>
+  <si>
+    <t>becas privadas</t>
+  </si>
+  <si>
+    <t>https://www.becas-santander.com/es/index.html</t>
+  </si>
+  <si>
+    <t>Palabras clave en Google</t>
+  </si>
+  <si>
+    <t>Educaweb</t>
+  </si>
+  <si>
+    <t>Becas-Santander</t>
+  </si>
+  <si>
+    <t>Injuve</t>
+  </si>
+  <si>
+    <t>https://www.injuve.es/convocatorias/becas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +238,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,7 +255,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -176,11 +263,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -190,8 +293,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -470,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +596,7 @@
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -499,10 +610,13 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -516,10 +630,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -533,10 +647,10 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -550,12 +664,12 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
@@ -567,12 +681,12 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
@@ -584,10 +698,10 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -601,15 +715,15 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -618,4 +732,175 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>Hoja1!A5</f>
+        <v xml:space="preserve">* Información sobre solicitudes de becas y ayudas </v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="8">
+        <v>84000</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1200</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="8">
+        <v>528000</v>
+      </c>
+      <c r="F3" s="8">
+        <v>6000</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="8">
+        <v>15000</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1800</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5">
+        <v>226</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Estrategia_blog.xlsx
+++ b/Estrategia_blog.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Blogs" sheetId="1" r:id="rId1"/>
+    <sheet name="Palabras Clave" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Fecha</t>
   </si>
@@ -95,9 +95,6 @@
     </r>
   </si>
   <si>
-    <t>Beneficios de la formación online</t>
-  </si>
-  <si>
     <t>Fórmate sin dejar tu trabajo</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
   </si>
   <si>
     <t>Ayudas al emprendimiento</t>
-  </si>
-  <si>
-    <t>Beneficios de aprender a programar</t>
   </si>
   <si>
     <t>Tomás</t>
@@ -140,9 +134,6 @@
     <t>KEY WORDS</t>
   </si>
   <si>
-    <t>Post</t>
-  </si>
-  <si>
     <t>Key Words</t>
   </si>
   <si>
@@ -216,6 +207,21 @@
   </si>
   <si>
     <t>https://www.injuve.es/convocatorias/becas</t>
+  </si>
+  <si>
+    <t>Ventajas y desventajas de la formación online</t>
+  </si>
+  <si>
+    <t>Donde informarse de las oposiciones</t>
+  </si>
+  <si>
+    <t>5 Beneficios de aprender a programar</t>
+  </si>
+  <si>
+    <t>X Beneficios de aprender a programar</t>
+  </si>
+  <si>
+    <t>Título de Blog</t>
   </si>
 </sst>
 </file>
@@ -283,7 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -300,6 +306,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -610,15 +617,15 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -630,12 +637,12 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -647,12 +654,13 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
+      <c r="A4" t="str">
+        <f>'Palabras Clave'!B13</f>
+        <v>Ventajas y desventajas de la formación online</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -664,12 +672,12 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
@@ -681,12 +689,12 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
@@ -698,12 +706,12 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
@@ -715,12 +723,12 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -736,16 +744,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.85546875" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
@@ -754,44 +760,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="str">
+        <f>Blogs!A5</f>
+        <v xml:space="preserve">* Información sobre solicitudes de becas y ayudas </v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="C2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>Hoja1!A5</f>
-        <v xml:space="preserve">* Información sobre solicitudes de becas y ayudas </v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="E2" s="8">
         <v>84000</v>
@@ -800,21 +806,22 @@
         <v>1200</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>31</v>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="E3" s="8">
         <v>528000</v>
@@ -823,21 +830,22 @@
         <v>6000</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>32</v>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E4" s="8">
         <v>15000</v>
@@ -846,38 +854,40 @@
         <v>1800</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>33</v>
+      <c r="A5" s="6"/>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="6">
+        <v>226</v>
+      </c>
+      <c r="F5" s="6">
+        <v>60</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5">
-        <v>226</v>
-      </c>
-      <c r="F5">
-        <v>60</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -887,8 +897,9 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>35</v>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -897,10 +908,56 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>Blogs!A2</f>
+        <v xml:space="preserve">Información sobre convocatorias de oposiciones </v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>Blogs!A3</f>
+        <v>Fórmate sin dejar tu trabajo</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>Blogs!A4</f>
+        <v>Ventajas y desventajas de la formación online</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>Blogs!A6</f>
+        <v>X Beneficios de aprender a programar</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>Blogs!A7</f>
+        <v>Ayudas al emprendimiento</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Estrategia_blog.xlsx
+++ b/Estrategia_blog.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Fecha</t>
   </si>
@@ -215,13 +215,19 @@
     <t>Donde informarse de las oposiciones</t>
   </si>
   <si>
-    <t>5 Beneficios de aprender a programar</t>
-  </si>
-  <si>
     <t>X Beneficios de aprender a programar</t>
   </si>
   <si>
     <t>Título de Blog</t>
+  </si>
+  <si>
+    <t>Ventajas formación online</t>
+  </si>
+  <si>
+    <t>Beneficios programar</t>
+  </si>
+  <si>
+    <t>Como mejorar tu trabajo / Como especializarse en tu trabajo / Cómo compaginar trabajo y estudios</t>
   </si>
 </sst>
 </file>
@@ -289,7 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -307,6 +313,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -591,7 +600,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +669,7 @@
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'Palabras Clave'!B13</f>
-        <v>Ventajas y desventajas de la formación online</v>
+        <v>Ventajas formación online</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -694,7 +703,7 @@
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
@@ -746,14 +755,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
@@ -761,7 +772,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>25</v>
@@ -917,22 +928,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>Blogs!A3</f>
         <v>Fórmate sin dejar tu trabajo</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
+      <c r="B11" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f>Blogs!A4</f>
-        <v>Ventajas y desventajas de la formación online</v>
+      <c r="A13" t="s">
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -941,7 +951,7 @@
         <v>X Beneficios de aprender a programar</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
